--- a/insert information to supabase/data/Ministerio_de_hacienda_Con_Tema.xlsx
+++ b/insert information to supabase/data/Ministerio_de_hacienda_Con_Tema.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielfeliperambautlemus/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Dapper\web-scrapping-deepear\insert information to supabase\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EB22555-DA5C-8246-AEFB-97354EB61DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DE2F7C-B4C3-4DDE-9F69-8CF1E684F6A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="149">
   <si>
     <t>nombre</t>
   </si>
@@ -467,15 +467,6 @@
   </si>
   <si>
     <t xml:space="preserve">DECRETO </t>
-  </si>
-  <si>
-    <t>Diciembre de 2025</t>
-  </si>
-  <si>
-    <t>Enero de 2025</t>
-  </si>
-  <si>
-    <t>Noviembre de 2025</t>
   </si>
   <si>
     <t>Otros</t>
@@ -503,7 +494,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -513,6 +504,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -555,12 +554,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -868,17 +868,18 @@
   <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M40"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="12" max="12" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="43.1640625" customWidth="1"/>
-    <col min="14" max="14" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="43.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="43.1796875" customWidth="1"/>
+    <col min="14" max="14" width="25.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -916,13 +917,13 @@
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -953,20 +954,20 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="K2" t="s">
-        <v>143</v>
+      <c r="K2" s="2">
+        <v>46021</v>
       </c>
       <c r="L2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -997,20 +998,20 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="3">
+        <v>45687</v>
+      </c>
+      <c r="L3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M3" t="s">
+        <v>148</v>
+      </c>
+      <c r="N3" t="s">
         <v>144</v>
       </c>
-      <c r="L3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M3" t="s">
-        <v>151</v>
-      </c>
-      <c r="N3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1045,16 +1046,16 @@
         <v>45808</v>
       </c>
       <c r="L4" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N4" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1085,17 +1086,20 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" s="2">
+        <v>45808</v>
+      </c>
       <c r="L5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1130,16 +1134,16 @@
         <v>45689</v>
       </c>
       <c r="L6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N6" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1174,16 +1178,16 @@
         <v>45689</v>
       </c>
       <c r="L7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N7" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1218,16 +1222,16 @@
         <v>45717</v>
       </c>
       <c r="L8" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M8" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N8" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1262,16 +1266,16 @@
         <v>45717</v>
       </c>
       <c r="L9" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M9" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N9" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1306,16 +1310,16 @@
         <v>45687</v>
       </c>
       <c r="L10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1350,16 +1354,16 @@
         <v>45687</v>
       </c>
       <c r="L11" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M11" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1394,16 +1398,16 @@
         <v>45672</v>
       </c>
       <c r="L12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N12" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1434,20 +1438,20 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
-      <c r="K13" t="s">
-        <v>144</v>
+      <c r="K13" s="2">
+        <v>45687</v>
       </c>
       <c r="L13" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M13" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1482,16 +1486,16 @@
         <v>45823</v>
       </c>
       <c r="L14" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M14" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N14" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1526,16 +1530,16 @@
         <v>45823</v>
       </c>
       <c r="L15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1570,16 +1574,16 @@
         <v>45731</v>
       </c>
       <c r="L16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N16" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1614,16 +1618,16 @@
         <v>45731</v>
       </c>
       <c r="L17" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M17" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N17" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1658,16 +1662,16 @@
         <v>45792</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N18" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1702,16 +1706,16 @@
         <v>45868</v>
       </c>
       <c r="L19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M19" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N19" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1746,16 +1750,16 @@
         <v>45703</v>
       </c>
       <c r="L20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M20" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N20" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1790,16 +1794,16 @@
         <v>45792</v>
       </c>
       <c r="L21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N21" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -1834,16 +1838,16 @@
         <v>45884</v>
       </c>
       <c r="L22" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M22" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N22" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -1878,16 +1882,16 @@
         <v>45884</v>
       </c>
       <c r="L23" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M23" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N23" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -1922,16 +1926,16 @@
         <v>45792</v>
       </c>
       <c r="L24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N24" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -1966,16 +1970,16 @@
         <v>45703</v>
       </c>
       <c r="L25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M25" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N25" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2010,16 +2014,16 @@
         <v>45884</v>
       </c>
       <c r="L26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M26" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2054,16 +2058,16 @@
         <v>45976</v>
       </c>
       <c r="L27" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N27" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2098,16 +2102,16 @@
         <v>45976</v>
       </c>
       <c r="L28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2142,16 +2146,16 @@
         <v>45731</v>
       </c>
       <c r="L29" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N29" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2186,16 +2190,16 @@
         <v>45689</v>
       </c>
       <c r="L30" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M30" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2230,16 +2234,16 @@
         <v>46006</v>
       </c>
       <c r="L31" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M31" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N31" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2274,16 +2278,16 @@
         <v>45962</v>
       </c>
       <c r="L32" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M32" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N32" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2318,16 +2322,16 @@
         <v>45762</v>
       </c>
       <c r="L33" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M33" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N33" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2362,16 +2366,16 @@
         <v>45838</v>
       </c>
       <c r="L34" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M34" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N34" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2402,20 +2406,20 @@
       <c r="J35" t="b">
         <v>0</v>
       </c>
-      <c r="K35" t="s">
-        <v>145</v>
+      <c r="K35" s="2">
+        <v>45976</v>
       </c>
       <c r="L35" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M35" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N35" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2446,20 +2450,20 @@
       <c r="J36" t="b">
         <v>0</v>
       </c>
-      <c r="K36" t="s">
-        <v>145</v>
+      <c r="K36" s="2">
+        <v>45976</v>
       </c>
       <c r="L36" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M36" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N36" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2490,20 +2494,20 @@
       <c r="J37" t="b">
         <v>0</v>
       </c>
-      <c r="K37" t="s">
-        <v>145</v>
+      <c r="K37" s="2">
+        <v>45976</v>
       </c>
       <c r="L37" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M37" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2538,16 +2542,16 @@
         <v>45757</v>
       </c>
       <c r="L38" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M38" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2582,16 +2586,16 @@
         <v>45757</v>
       </c>
       <c r="L39" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M39" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N39" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2626,13 +2630,13 @@
         <v>45757</v>
       </c>
       <c r="L40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="M40" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N40" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
